--- a/inst/extdata/MassWateR_Results_Template.xlsx
+++ b/inst/extdata/MassWateR_Results_Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69C043D-D8C9-4955-8F56-EE0F135187CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08D7B72-B552-4985-90AF-3CAAF37FE061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
+    <sheet name="Values" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$N$1</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="192">
   <si>
     <t>Monitoring Location ID</t>
   </si>
@@ -541,6 +542,333 @@
   <si>
     <t>For WQX:  Enter the method ID used for this sample collection.  Not applicable for field measurement/observations.  Method IDs are defined in WQX by organization.  MassWateR will assign a default value of "Grab-MassWateR" if nothing is entered, but this requires a Method Context of "MassWateR" in the WQXMeta file.  Standard method IDs that can be used by any organization under the MassWateR context are "Grab-MassWateR", "Pole-MassWateR", and "Basket-MassWateR".</t>
   </si>
+  <si>
+    <t>3-1-17_345367</t>
+  </si>
+  <si>
+    <t>Free-form field for capturing a locally defined unique identifier for each record.  Only needed if your local system has a record identifier that you want to keep track of in WQX.</t>
+  </si>
+  <si>
+    <t>Local Record ID</t>
+  </si>
+  <si>
+    <t>Quality Control Sample-Field Blank</t>
+  </si>
+  <si>
+    <t>Quality Control Sample-Lab Blank</t>
+  </si>
+  <si>
+    <t>Quality Control Sample-Lab Spike</t>
+  </si>
+  <si>
+    <t>Quality Control-Meter Lab Duplicate</t>
+  </si>
+  <si>
+    <t>Quality Control-Meter Lab Blank</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Midwater</t>
+  </si>
+  <si>
+    <t>Near Bottom</t>
+  </si>
+  <si>
+    <t>Water Temp</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Ortho P</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>TDP</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>Nitrate + Nitrite</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TKN</t>
+  </si>
+  <si>
+    <t>PON</t>
+  </si>
+  <si>
+    <t>TDN</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Ammonium</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Silicate</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Secchi Depth</t>
+  </si>
+  <si>
+    <t>Chl a</t>
+  </si>
+  <si>
+    <t>Chl a (probe)</t>
+  </si>
+  <si>
+    <t>Pheophytin</t>
+  </si>
+  <si>
+    <t>Enterococcus</t>
+  </si>
+  <si>
+    <t>Fecal Coliform</t>
+  </si>
+  <si>
+    <t>Surfactants</t>
+  </si>
+  <si>
+    <t>Cyanobacteria (probe)</t>
+  </si>
+  <si>
+    <t>Cyanobacteria (lab)</t>
+  </si>
+  <si>
+    <t>Microcystins</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Gage</t>
+  </si>
+  <si>
+    <t>Air Temp</t>
+  </si>
+  <si>
+    <t>Temperature, water</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen (DO)</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen saturation</t>
+  </si>
+  <si>
+    <t>Specific conductance</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, mixed forms</t>
+  </si>
+  <si>
+    <t>Orthophosphate</t>
+  </si>
+  <si>
+    <t>Phosphorus, Particulate Organic</t>
+  </si>
+  <si>
+    <t>Total Nitrogen, mixed forms</t>
+  </si>
+  <si>
+    <t>Total Kjeldahl nitrogen</t>
+  </si>
+  <si>
+    <t>Particulate organic carbon</t>
+  </si>
+  <si>
+    <t>Total suspended solids</t>
+  </si>
+  <si>
+    <t>Total dissolved solids</t>
+  </si>
+  <si>
+    <t>Depth, Secchi disk depth</t>
+  </si>
+  <si>
+    <t>Chlorophyll a</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (probe)</t>
+  </si>
+  <si>
+    <t>Pheophytin a</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (probe) concentration, Cyanobacteria (bluegreen)</t>
+  </si>
+  <si>
+    <t>Algae, blue-green (phylum cyanophyta) density</t>
+  </si>
+  <si>
+    <t>Height, gage</t>
+  </si>
+  <si>
+    <t>Temperature, air</t>
+  </si>
+  <si>
+    <t>ug/l</t>
+  </si>
+  <si>
+    <t>umol/l</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>deg C</t>
+  </si>
+  <si>
+    <t>deg F</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>s.u.</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>g/kg</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>ppth</t>
+  </si>
+  <si>
+    <t>mS/cm</t>
+  </si>
+  <si>
+    <t>S/m</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>MPN/100ml</t>
+  </si>
+  <si>
+    <t>#/100ml</t>
+  </si>
+  <si>
+    <t>cfs</t>
+  </si>
+  <si>
+    <t>cfm</t>
+  </si>
+  <si>
+    <t>mgd</t>
+  </si>
+  <si>
+    <t>l/min</t>
+  </si>
+  <si>
+    <t>l/sec</t>
+  </si>
+  <si>
+    <t>FNU</t>
+  </si>
+  <si>
+    <t>JTU</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>FBU</t>
+  </si>
+  <si>
+    <t>FNMU</t>
+  </si>
+  <si>
+    <t>FNRU</t>
+  </si>
+  <si>
+    <t>NTMU</t>
+  </si>
+  <si>
+    <t>NTRU</t>
+  </si>
+  <si>
+    <t>FTU</t>
+  </si>
+  <si>
+    <t>Pole-MassWateR</t>
+  </si>
+  <si>
+    <t>Basket-MassWateR</t>
+  </si>
+  <si>
+    <t>% recovery</t>
+  </si>
+  <si>
+    <t>Template updated 5/4/23</t>
+  </si>
 </sst>
 </file>
 
@@ -549,7 +877,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,8 +922,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +958,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -753,6 +1094,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,13 +1413,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271A468-9B9D-48BE-A50F-E841236CDECF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,10 +1437,11 @@
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1145,10 +1491,13 @@
         <v>64</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>81</v>
@@ -1223,11 +1572,11 @@
       <c r="P3" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +1605,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -1291,18 +1640,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32BB1E41-7B7C-4040-A5BC-F0F361CEF4ED}">
+          <x14:formula1>
+            <xm:f>Values!$A$2:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A1C28841-16D0-4E3A-A64E-6BE7E75B23E2}">
+          <x14:formula1>
+            <xm:f>Values!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{3D252FD9-0DEB-46E0-8BC7-67012DA2692C}">
+          <x14:formula1>
+            <xm:f>Values!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28137517-E795-4631-83B1-DD4616788B35}">
+          <x14:formula1>
+            <xm:f>Values!$D$2:$D$87</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D8A1554-0B5F-4912-9C2C-B7455F484847}">
+          <x14:formula1>
+            <xm:f>Values!$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{A40CB64D-C991-409E-9DB0-D13C47A34E8E}">
+          <x14:formula1>
+            <xm:f>Values!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAA8724F-43C6-4451-A490-9132A9A6EAA5}">
+          <x14:formula1>
+            <xm:f>Values!$E$2:$E$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C6628-51AC-4A46-96D9-F2FA0EFA1B4C}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,6 +1715,9 @@
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
+      <c r="C1" s="27" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1608,18 +2008,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="25" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="25" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1627,4 +2044,669 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2711FA19-F675-4631-8E5F-6D018E88F2B7}">
+  <dimension ref="A1:L87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D87">
+    <sortCondition ref="D2:D87"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/inst/extdata/MassWateR_Results_Template.xlsx
+++ b/inst/extdata/MassWateR_Results_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08D7B72-B552-4985-90AF-3CAAF37FE061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2A3B6C-510B-4645-B614-6E16FA3EE76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="192">
   <si>
     <t>Monitoring Location ID</t>
   </si>
@@ -867,7 +867,7 @@
     <t>% recovery</t>
   </si>
   <si>
-    <t>Template updated 5/4/23</t>
+    <t>Template updated 6/29/23</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1419,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,12 +1661,6 @@
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28137517-E795-4631-83B1-DD4616788B35}">
-          <x14:formula1>
-            <xm:f>Values!$D$2:$D$87</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D8A1554-0B5F-4912-9C2C-B7455F484847}">
           <x14:formula1>
             <xm:f>Values!$F$2</xm:f>
@@ -1684,6 +1678,12 @@
             <xm:f>Values!$E$2:$E$42</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28137517-E795-4631-83B1-DD4616788B35}">
+          <x14:formula1>
+            <xm:f>Values!$D$2:$D$65</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2048,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2711FA19-F675-4631-8E5F-6D018E88F2B7}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2160,7 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
         <v>179</v>
@@ -2171,7 +2171,7 @@
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>180</v>
@@ -2182,7 +2182,7 @@
         <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>172</v>
@@ -2193,7 +2193,7 @@
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
         <v>171</v>
@@ -2204,7 +2204,7 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2215,7 +2215,7 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
         <v>168</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
         <v>157</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
         <v>158</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>181</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
         <v>182</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
         <v>183</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
         <v>184</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>176</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>187</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>163</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
         <v>177</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
         <v>174</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
         <v>175</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>91</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
         <v>173</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
         <v>169</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
         <v>166</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
         <v>159</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>185</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>186</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
         <v>178</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
         <v>156</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
         <v>164</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
         <v>165</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
         <v>162</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
         <v>161</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
         <v>160</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
         <v>167</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
         <v>155</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
         <v>31</v>
@@ -2479,232 +2479,122 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D87">
-    <sortCondition ref="D2:D87"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D65">
+    <sortCondition ref="D2:D65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/MassWateR_Results_Template.xlsx
+++ b/inst/extdata/MassWateR_Results_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2A3B6C-510B-4645-B614-6E16FA3EE76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E938E-1C2A-4248-B6A3-B6B6105ADE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
   </bookViews>
@@ -527,347 +527,347 @@
     </r>
   </si>
   <si>
+    <t>Only for duplicates, spikes, and calibration checks</t>
+  </si>
+  <si>
+    <t>Required for activity types Sample-Routine and Quality Control Sample-Field Blank</t>
+  </si>
+  <si>
+    <t>Grab-MassWateR</t>
+  </si>
+  <si>
+    <t>For WQX:  Enter the method ID used for this sample collection.  Not applicable for field measurement/observations.  Method IDs are defined in WQX by organization.  MassWateR will assign a default value of "Grab-MassWateR" if nothing is entered, but this requires a Method Context of "MassWateR" in the WQXMeta file.  Standard method IDs that can be used by any organization under the MassWateR context are "Grab-MassWateR", "Pole-MassWateR", and "Basket-MassWateR".</t>
+  </si>
+  <si>
+    <t>3-1-17_345367</t>
+  </si>
+  <si>
+    <t>Free-form field for capturing a locally defined unique identifier for each record.  Only needed if your local system has a record identifier that you want to keep track of in WQX.</t>
+  </si>
+  <si>
+    <t>Local Record ID</t>
+  </si>
+  <si>
+    <t>Quality Control Sample-Field Blank</t>
+  </si>
+  <si>
+    <t>Quality Control Sample-Lab Blank</t>
+  </si>
+  <si>
+    <t>Quality Control Sample-Lab Spike</t>
+  </si>
+  <si>
+    <t>Quality Control-Meter Lab Duplicate</t>
+  </si>
+  <si>
+    <t>Quality Control-Meter Lab Blank</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Midwater</t>
+  </si>
+  <si>
+    <t>Near Bottom</t>
+  </si>
+  <si>
+    <t>Water Temp</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Ortho P</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>TDP</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>Nitrate + Nitrite</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TKN</t>
+  </si>
+  <si>
+    <t>PON</t>
+  </si>
+  <si>
+    <t>TDN</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Ammonium</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Silicate</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Secchi Depth</t>
+  </si>
+  <si>
+    <t>Chl a</t>
+  </si>
+  <si>
+    <t>Chl a (probe)</t>
+  </si>
+  <si>
+    <t>Pheophytin</t>
+  </si>
+  <si>
+    <t>Enterococcus</t>
+  </si>
+  <si>
+    <t>Fecal Coliform</t>
+  </si>
+  <si>
+    <t>Surfactants</t>
+  </si>
+  <si>
+    <t>Cyanobacteria (probe)</t>
+  </si>
+  <si>
+    <t>Cyanobacteria (lab)</t>
+  </si>
+  <si>
+    <t>Microcystins</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Gage</t>
+  </si>
+  <si>
+    <t>Air Temp</t>
+  </si>
+  <si>
+    <t>Temperature, water</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen (DO)</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen saturation</t>
+  </si>
+  <si>
+    <t>Specific conductance</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, mixed forms</t>
+  </si>
+  <si>
+    <t>Orthophosphate</t>
+  </si>
+  <si>
+    <t>Phosphorus, Particulate Organic</t>
+  </si>
+  <si>
+    <t>Total Nitrogen, mixed forms</t>
+  </si>
+  <si>
+    <t>Total Kjeldahl nitrogen</t>
+  </si>
+  <si>
+    <t>Particulate organic carbon</t>
+  </si>
+  <si>
+    <t>Total suspended solids</t>
+  </si>
+  <si>
+    <t>Total dissolved solids</t>
+  </si>
+  <si>
+    <t>Depth, Secchi disk depth</t>
+  </si>
+  <si>
+    <t>Chlorophyll a</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (probe)</t>
+  </si>
+  <si>
+    <t>Pheophytin a</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (probe) concentration, Cyanobacteria (bluegreen)</t>
+  </si>
+  <si>
+    <t>Algae, blue-green (phylum cyanophyta) density</t>
+  </si>
+  <si>
+    <t>Height, gage</t>
+  </si>
+  <si>
+    <t>Temperature, air</t>
+  </si>
+  <si>
+    <t>ug/l</t>
+  </si>
+  <si>
+    <t>umol/l</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>deg C</t>
+  </si>
+  <si>
+    <t>deg F</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>s.u.</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>g/kg</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>ppth</t>
+  </si>
+  <si>
+    <t>mS/cm</t>
+  </si>
+  <si>
+    <t>S/m</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>MPN/100ml</t>
+  </si>
+  <si>
+    <t>#/100ml</t>
+  </si>
+  <si>
+    <t>cfs</t>
+  </si>
+  <si>
+    <t>cfm</t>
+  </si>
+  <si>
+    <t>mgd</t>
+  </si>
+  <si>
+    <t>l/min</t>
+  </si>
+  <si>
+    <t>l/sec</t>
+  </si>
+  <si>
+    <t>FNU</t>
+  </si>
+  <si>
+    <t>JTU</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>FBU</t>
+  </si>
+  <si>
+    <t>FNMU</t>
+  </si>
+  <si>
+    <t>FNRU</t>
+  </si>
+  <si>
+    <t>NTMU</t>
+  </si>
+  <si>
+    <t>NTRU</t>
+  </si>
+  <si>
+    <t>FTU</t>
+  </si>
+  <si>
+    <t>Pole-MassWateR</t>
+  </si>
+  <si>
+    <t>Basket-MassWateR</t>
+  </si>
+  <si>
+    <t>% recovery</t>
+  </si>
+  <si>
     <t>Result unit of measure.  Only the units of measure listed in the parameter list are allowed.  The unit of measure used for each parameter must be consistent for the whole file.
-- One exception to this rule is Lab Spikes.  Lab Spikes may be entered with a % unit of measure for any parameter.  "% recovery" is recommended but "%" can also be used.</t>
-  </si>
-  <si>
-    <t>Only for duplicates, spikes, and calibration checks</t>
-  </si>
-  <si>
-    <t>Required for activity types Sample-Routine and Quality Control Sample-Field Blank</t>
-  </si>
-  <si>
-    <t>Grab-MassWateR</t>
-  </si>
-  <si>
-    <t>For WQX:  Enter the method ID used for this sample collection.  Not applicable for field measurement/observations.  Method IDs are defined in WQX by organization.  MassWateR will assign a default value of "Grab-MassWateR" if nothing is entered, but this requires a Method Context of "MassWateR" in the WQXMeta file.  Standard method IDs that can be used by any organization under the MassWateR context are "Grab-MassWateR", "Pole-MassWateR", and "Basket-MassWateR".</t>
-  </si>
-  <si>
-    <t>3-1-17_345367</t>
-  </si>
-  <si>
-    <t>Free-form field for capturing a locally defined unique identifier for each record.  Only needed if your local system has a record identifier that you want to keep track of in WQX.</t>
-  </si>
-  <si>
-    <t>Local Record ID</t>
-  </si>
-  <si>
-    <t>Quality Control Sample-Field Blank</t>
-  </si>
-  <si>
-    <t>Quality Control Sample-Lab Blank</t>
-  </si>
-  <si>
-    <t>Quality Control Sample-Lab Spike</t>
-  </si>
-  <si>
-    <t>Quality Control-Meter Lab Duplicate</t>
-  </si>
-  <si>
-    <t>Quality Control-Meter Lab Blank</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>Midwater</t>
-  </si>
-  <si>
-    <t>Near Bottom</t>
-  </si>
-  <si>
-    <t>Water Temp</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>Ortho P</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
-    <t>TDP</t>
-  </si>
-  <si>
-    <t>Nitrite</t>
-  </si>
-  <si>
-    <t>Nitrate + Nitrite</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>TKN</t>
-  </si>
-  <si>
-    <t>PON</t>
-  </si>
-  <si>
-    <t>TDN</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Ammonium</t>
-  </si>
-  <si>
-    <t>POC</t>
-  </si>
-  <si>
-    <t>Silicate</t>
-  </si>
-  <si>
-    <t>Chloride</t>
-  </si>
-  <si>
-    <t>Sulfate</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
-    <t>Secchi Depth</t>
-  </si>
-  <si>
-    <t>Chl a</t>
-  </si>
-  <si>
-    <t>Chl a (probe)</t>
-  </si>
-  <si>
-    <t>Pheophytin</t>
-  </si>
-  <si>
-    <t>Enterococcus</t>
-  </si>
-  <si>
-    <t>Fecal Coliform</t>
-  </si>
-  <si>
-    <t>Surfactants</t>
-  </si>
-  <si>
-    <t>Cyanobacteria (probe)</t>
-  </si>
-  <si>
-    <t>Cyanobacteria (lab)</t>
-  </si>
-  <si>
-    <t>Microcystins</t>
-  </si>
-  <si>
-    <t>Metals</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Gage</t>
-  </si>
-  <si>
-    <t>Air Temp</t>
-  </si>
-  <si>
-    <t>Temperature, water</t>
-  </si>
-  <si>
-    <t>Dissolved oxygen (DO)</t>
-  </si>
-  <si>
-    <t>Dissolved oxygen saturation</t>
-  </si>
-  <si>
-    <t>Specific conductance</t>
-  </si>
-  <si>
-    <t>Total Phosphorus, mixed forms</t>
-  </si>
-  <si>
-    <t>Orthophosphate</t>
-  </si>
-  <si>
-    <t>Phosphorus, Particulate Organic</t>
-  </si>
-  <si>
-    <t>Total Nitrogen, mixed forms</t>
-  </si>
-  <si>
-    <t>Total Kjeldahl nitrogen</t>
-  </si>
-  <si>
-    <t>Particulate organic carbon</t>
-  </si>
-  <si>
-    <t>Total suspended solids</t>
-  </si>
-  <si>
-    <t>Total dissolved solids</t>
-  </si>
-  <si>
-    <t>Depth, Secchi disk depth</t>
-  </si>
-  <si>
-    <t>Chlorophyll a</t>
-  </si>
-  <si>
-    <t>Chlorophyll a (probe)</t>
-  </si>
-  <si>
-    <t>Pheophytin a</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Chlorophyll a (probe) concentration, Cyanobacteria (bluegreen)</t>
-  </si>
-  <si>
-    <t>Algae, blue-green (phylum cyanophyta) density</t>
-  </si>
-  <si>
-    <t>Height, gage</t>
-  </si>
-  <si>
-    <t>Temperature, air</t>
-  </si>
-  <si>
-    <t>ug/l</t>
-  </si>
-  <si>
-    <t>umol/l</t>
-  </si>
-  <si>
-    <t>ppm</t>
-  </si>
-  <si>
-    <t>deg C</t>
-  </si>
-  <si>
-    <t>deg F</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>s.u.</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>PSS</t>
-  </si>
-  <si>
-    <t>g/kg</t>
-  </si>
-  <si>
-    <t>ppt</t>
-  </si>
-  <si>
-    <t>ppth</t>
-  </si>
-  <si>
-    <t>mS/cm</t>
-  </si>
-  <si>
-    <t>S/m</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>MPN/100ml</t>
-  </si>
-  <si>
-    <t>#/100ml</t>
-  </si>
-  <si>
-    <t>cfs</t>
-  </si>
-  <si>
-    <t>cfm</t>
-  </si>
-  <si>
-    <t>mgd</t>
-  </si>
-  <si>
-    <t>l/min</t>
-  </si>
-  <si>
-    <t>l/sec</t>
-  </si>
-  <si>
-    <t>FNU</t>
-  </si>
-  <si>
-    <t>JTU</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>FBU</t>
-  </si>
-  <si>
-    <t>FNMU</t>
-  </si>
-  <si>
-    <t>FNRU</t>
-  </si>
-  <si>
-    <t>NTMU</t>
-  </si>
-  <si>
-    <t>NTRU</t>
-  </si>
-  <si>
-    <t>FTU</t>
-  </si>
-  <si>
-    <t>Pole-MassWateR</t>
-  </si>
-  <si>
-    <t>Basket-MassWateR</t>
-  </si>
-  <si>
-    <t>% recovery</t>
-  </si>
-  <si>
-    <t>Template updated 6/29/23</t>
+- One exception to this rule is Lab Spikes.  Lab Spikes may be entered with a % unit of measure for any parameter.  "% recovery" is recommended but "%" can also be used.  Note that if % or % recovery are used, then the Lab Spike DQO must also be defined as a %.</t>
+  </si>
+  <si>
+    <t>Template updated 9/7/23</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1491,7 @@
         <v>64</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>66</v>
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
         <v>67</v>
@@ -1893,12 +1893,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>32</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1979,16 +1979,16 @@
         <v>65</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2010,13 +2010,13 @@
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>41</v>
@@ -2103,16 +2103,16 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2120,36 +2120,36 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2157,54 +2157,54 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2215,71 +2215,71 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
@@ -2306,36 +2306,36 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -2343,34 +2343,34 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
@@ -2378,100 +2378,100 @@
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
         <v>31</v>
@@ -2479,17 +2479,17 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
@@ -2499,82 +2499,82 @@
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
@@ -2584,12 +2584,12 @@
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MassWateR_Results_Template.xlsx
+++ b/inst/extdata/MassWateR_Results_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d8cbaaa4eaa566d/Documents/1 ACASAK/MassWateR/Design/Templates for users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E938E-1C2A-4248-B6A3-B6B6105ADE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B305727F-B4FC-41AE-B4DB-88ADE803D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A7EF52B-BB46-4739-B6D8-167FC67140AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
   <si>
     <t>Monitoring Location ID</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>Numeric measured value.  If the value is below the detection limit, enter "BDL".  If the value is above the quantitation limit, enter "AQL".</t>
-  </si>
-  <si>
-    <t>If the Result Value is BDL or AQL, this column will be checked for the limit value.  If a value is entered here it will be used.  Otherwise, the value in the MDL or UQL column in the DQO Accuracy file will be used.  MassWateR analytical functions will use 1/2 of the MDL and 100% of the UQL.</t>
   </si>
   <si>
     <t>The Results tab must be the first tab in this workbook.</t>
@@ -668,9 +665,6 @@
     <t>Cyanobacteria (probe)</t>
   </si>
   <si>
-    <t>Cyanobacteria (lab)</t>
-  </si>
-  <si>
     <t>Microcystins</t>
   </si>
   <si>
@@ -867,7 +861,30 @@
 - One exception to this rule is Lab Spikes.  Lab Spikes may be entered with a % unit of measure for any parameter.  "% recovery" is recommended but "%" can also be used.  Note that if % or % recovery are used, then the Lab Spike DQO must also be defined as a %.</t>
   </si>
   <si>
-    <t>Template updated 9/7/23</t>
+    <t>numeric values only</t>
+  </si>
+  <si>
+    <t>If the Result Value or QC Reference Value is BDL or AQL, this column will be checked for the minimum or upper limit value.  If a value is entered here it will be used.  Otherwise, the value in the MDL or UQL column in the DQO Accuracy file will be used.  This field should only be used to override the values in the DQO Accuracy file.  MassWateR analytical functions will convert BDL to 1/2 of the minimum limit and AQL to 100% of the upper limit.</t>
+  </si>
+  <si>
+    <t>0.01
+or
+1500</t>
+  </si>
+  <si>
+    <t>Phycocyanin</t>
+  </si>
+  <si>
+    <t>Phycoerythrin</t>
+  </si>
+  <si>
+    <t>Phycocyanin (probe)</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>Template updated 10/4/24</t>
   </si>
 </sst>
 </file>
@@ -1116,9 +1133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1156,7 +1173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1262,7 +1279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1404,7 +1421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1419,7 +1436,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,16 +1502,16 @@
         <v>24</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1532,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1567,13 +1584,13 @@
         <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
         <v>67</v>
-      </c>
-      <c r="R3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1602,12 +1619,12 @@
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4">
         <v>44451</v>
@@ -1628,7 +1645,7 @@
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1698,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28137517-E795-4631-83B1-DD4616788B35}">
           <x14:formula1>
-            <xm:f>Values!$D$2:$D$65</xm:f>
+            <xm:f>Values!$D$2:$D$68</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
@@ -1696,10 +1713,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,17 +1733,17 @@
         <v>34</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1743,7 +1760,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1760,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="300" x14ac:dyDescent="0.25">
@@ -1768,16 +1785,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,14 +1802,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="18">
         <v>44383</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,7 +1824,7 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1815,14 +1832,14 @@
         <v>4</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="17">
         <v>0.75</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,10 +1853,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1847,16 +1864,16 @@
         <v>25</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1864,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>29</v>
@@ -1873,7 +1890,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1890,7 +1907,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1898,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>32</v>
@@ -1907,22 +1924,24 @@
         <v>40</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="17">
-        <v>1500</v>
-      </c>
-      <c r="D16" s="17"/>
+        <v>190</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="E16" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1935,9 +1954,11 @@
       <c r="C17" s="17">
         <v>830</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1954,7 +1975,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1962,7 +1983,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>22</v>
@@ -1971,73 +1992,73 @@
         <v>41</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2048,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2711FA19-F675-4631-8E5F-6D018E88F2B7}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
@@ -2103,16 +2124,16 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2120,36 +2141,36 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2157,54 +2178,54 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2212,74 +2233,74 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -2287,10 +2308,10 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
@@ -2298,7 +2319,7 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
@@ -2306,36 +2327,36 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -2343,34 +2364,34 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
@@ -2378,100 +2399,100 @@
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
         <v>31</v>
@@ -2479,122 +2500,137 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D65">
-    <sortCondition ref="D2:D65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D68">
+    <sortCondition ref="D2:D68"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/MassWateR_Results_Template.xlsx
+++ b/inst/extdata/MassWateR_Results_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d8cbaaa4eaa566d/Documents/1 ACASAK/MassWateR/Design/Templates for users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{B305727F-B4FC-41AE-B4DB-88ADE803D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A7EF52B-BB46-4739-B6D8-167FC67140AD}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{B305727F-B4FC-41AE-B4DB-88ADE803D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD0977F-B36D-4251-8C50-578D99776973}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="198">
   <si>
     <t>Monitoring Location ID</t>
   </si>
@@ -884,7 +884,10 @@
     <t>Cyanobacteria</t>
   </si>
   <si>
-    <t>Template updated 10/4/24</t>
+    <t>RFU</t>
+  </si>
+  <si>
+    <t>Template updated 10/28/24</t>
   </si>
 </sst>
 </file>
@@ -1130,6 +1133,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1436,7 +1443,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,17 +1697,17 @@
           </x14:formula1>
           <xm:sqref>O2:O1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAA8724F-43C6-4451-A490-9132A9A6EAA5}">
-          <x14:formula1>
-            <xm:f>Values!$E$2:$E$42</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28137517-E795-4631-83B1-DD4616788B35}">
           <x14:formula1>
             <xm:f>Values!$D$2:$D$68</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAA8724F-43C6-4451-A490-9132A9A6EAA5}">
+          <x14:formula1>
+            <xm:f>Values!$E$2:$E$43</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1716,7 +1723,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1740,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,7 +2079,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2470,7 @@
         <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
@@ -2471,7 +2478,7 @@
         <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
@@ -2479,7 +2486,7 @@
         <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
@@ -2487,7 +2494,7 @@
         <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
@@ -2495,12 +2502,15 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
